--- a/Data/EC/NIT-9007084022.xlsx
+++ b/Data/EC/NIT-9007084022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76CD664E-1528-4BA6-80F3-FC27AB59A73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01040DE7-B75C-4242-848C-B662CE053511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5802A2D9-0143-4F93-BD5E-F76CCBAE8CDD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{700C5ED6-BFAF-4B8E-8867-24EC312C997B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="85">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,199 +71,193 @@
     <t>RAMIRO RODRIGUEZ UPEGUI</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1100543580</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS PEINADO CAMPO</t>
+  </si>
+  <si>
+    <t>1047409273</t>
+  </si>
+  <si>
+    <t>EDINSON DE JESUS CABARCAS SEGOVIA</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1047392783</t>
-  </si>
-  <si>
-    <t>YAMILET CRISTINA HOYOS FLOREZ</t>
-  </si>
-  <si>
-    <t>1100543580</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS PEINADO CAMPO</t>
-  </si>
-  <si>
-    <t>1047409273</t>
-  </si>
-  <si>
-    <t>EDINSON DE JESUS CABARCAS SEGOVIA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -362,7 +356,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -375,9 +371,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -577,23 +571,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,10 +615,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,7 +671,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{309FA9A5-6944-2884-9CED-43639F6EB0D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B935043-967A-5459-C187-45B21416A341}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1028,8 +1022,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD93742-32A1-4234-B5A6-5AD16380E240}">
-  <dimension ref="B2:J199"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747697CC-9F28-45ED-A942-99A0553429BE}">
+  <dimension ref="B2:J198"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1053,7 +1047,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1098,7 +1092,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1130,12 +1124,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4499830</v>
+        <v>4464718</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1146,14 +1140,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13" s="5">
         <v>59</v>
@@ -1183,13 +1177,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1206,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1220,19 +1214,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>6160</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1243,19 +1237,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>6160</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1272,10 +1266,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="G19" s="18">
         <v>1000000</v>
@@ -1289,19 +1283,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>6160</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1312,19 +1306,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>6160</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1344,7 +1338,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="18">
         <v>1000000</v>
@@ -1358,19 +1352,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>6160</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1381,19 +1375,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>6160</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1410,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="G25" s="18">
         <v>1000000</v>
@@ -1427,19 +1421,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>6160</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1450,19 +1444,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>6160</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1479,10 +1473,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="G28" s="18">
         <v>1000000</v>
@@ -1496,19 +1490,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>40000</v>
+        <v>6160</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1519,19 +1513,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>6160</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1548,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="G31" s="18">
         <v>1000000</v>
@@ -1565,19 +1559,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
-        <v>40000</v>
+        <v>6160</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1588,19 +1582,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
-        <v>40000</v>
+        <v>6160</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1617,10 +1611,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G34" s="18">
         <v>1000000</v>
@@ -1634,19 +1628,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
-        <v>40000</v>
+        <v>12320</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1657,19 +1651,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F36" s="18">
-        <v>40000</v>
+        <v>12320</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1686,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G37" s="18">
         <v>1000000</v>
@@ -1703,19 +1697,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>40000</v>
+        <v>12320</v>
       </c>
       <c r="G38" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1726,19 +1720,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
-        <v>40000</v>
+        <v>12320</v>
       </c>
       <c r="G39" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1755,10 +1749,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G40" s="18">
         <v>1000000</v>
@@ -1772,19 +1766,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>12320</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1795,19 +1789,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>12320</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1824,10 +1818,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="G43" s="18">
         <v>1000000</v>
@@ -1841,19 +1835,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
-        <v>40000</v>
+        <v>12320</v>
       </c>
       <c r="G44" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1864,19 +1858,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
-        <v>30000</v>
+        <v>12320</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1893,10 +1887,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="G46" s="18">
         <v>1000000</v>
@@ -1910,19 +1904,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
-        <v>30000</v>
+        <v>12320</v>
       </c>
       <c r="G47" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1933,19 +1927,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
-        <v>30000</v>
+        <v>12320</v>
       </c>
       <c r="G48" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1962,10 +1956,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="G49" s="18">
         <v>1000000</v>
@@ -1979,19 +1973,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
-        <v>30000</v>
+        <v>12320</v>
       </c>
       <c r="G50" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2002,19 +1996,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
-        <v>30000</v>
+        <v>12320</v>
       </c>
       <c r="G51" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2031,10 +2025,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="G52" s="18">
         <v>1000000</v>
@@ -2048,19 +2042,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F53" s="18">
-        <v>30000</v>
+        <v>12320</v>
       </c>
       <c r="G53" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2071,19 +2065,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F54" s="18">
-        <v>30000</v>
+        <v>12320</v>
       </c>
       <c r="G54" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2100,10 +2094,10 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="G55" s="18">
         <v>1000000</v>
@@ -2117,19 +2111,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
-        <v>30000</v>
+        <v>12320</v>
       </c>
       <c r="G56" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2140,19 +2134,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
-        <v>20000</v>
+        <v>12320</v>
       </c>
       <c r="G57" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2169,7 +2163,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F58" s="18">
         <v>20000</v>
@@ -2186,19 +2180,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F59" s="18">
-        <v>20000</v>
+        <v>12320</v>
       </c>
       <c r="G59" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2209,19 +2203,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F60" s="18">
-        <v>20000</v>
+        <v>12320</v>
       </c>
       <c r="G60" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2238,7 +2232,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
         <v>20000</v>
@@ -2255,19 +2249,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18">
-        <v>20000</v>
+        <v>12320</v>
       </c>
       <c r="G62" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2278,19 +2272,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F63" s="18">
-        <v>20000</v>
+        <v>12320</v>
       </c>
       <c r="G63" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2307,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18">
         <v>20000</v>
@@ -2324,19 +2318,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F65" s="18">
-        <v>20000</v>
+        <v>12320</v>
       </c>
       <c r="G65" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2347,19 +2341,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F66" s="18">
-        <v>20000</v>
+        <v>12320</v>
       </c>
       <c r="G66" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2376,7 +2370,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F67" s="18">
         <v>20000</v>
@@ -2393,19 +2387,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F68" s="18">
-        <v>20000</v>
+        <v>12320</v>
       </c>
       <c r="G68" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2416,19 +2410,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F69" s="18">
-        <v>10000</v>
+        <v>12320</v>
       </c>
       <c r="G69" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2445,10 +2439,10 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="F70" s="18">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G70" s="18">
         <v>1000000</v>
@@ -2462,19 +2456,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F71" s="18">
-        <v>10000</v>
+        <v>18480</v>
       </c>
       <c r="G71" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2485,19 +2479,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F72" s="18">
-        <v>10000</v>
+        <v>18480</v>
       </c>
       <c r="G72" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2514,10 +2508,10 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F73" s="18">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G73" s="18">
         <v>1000000</v>
@@ -2531,19 +2525,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F74" s="18">
-        <v>10000</v>
+        <v>18480</v>
       </c>
       <c r="G74" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2554,19 +2548,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F75" s="18">
-        <v>35112</v>
+        <v>18480</v>
       </c>
       <c r="G75" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2577,19 +2571,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F76" s="18">
-        <v>24999</v>
+        <v>30000</v>
       </c>
       <c r="G76" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2600,16 +2594,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>18480</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2623,16 +2617,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>18480</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2646,19 +2640,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G79" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2669,16 +2663,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>18480</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2692,16 +2686,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>18480</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2715,19 +2709,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G82" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2738,16 +2732,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>18480</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2761,16 +2755,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>18480</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2784,19 +2778,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G85" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2807,16 +2801,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>18480</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2830,16 +2824,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>18480</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -2853,19 +2847,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2876,16 +2870,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>18480</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -2899,16 +2893,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>18480</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -2922,19 +2916,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2945,16 +2939,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>18480</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -2968,16 +2962,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>18480</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -2991,19 +2985,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3014,16 +3008,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>23437</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3037,16 +3031,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>23437</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3060,19 +3054,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3083,16 +3077,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>23437</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3106,16 +3100,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>23437</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3129,19 +3123,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3152,16 +3146,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>23437</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3175,16 +3169,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>23437</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3198,19 +3192,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3221,16 +3215,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>23437</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3244,13 +3238,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F105" s="18">
         <v>23437</v>
@@ -3267,19 +3261,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F106" s="18">
-        <v>23437</v>
+        <v>40000</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3290,16 +3284,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F107" s="18">
-        <v>23437</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3313,16 +3307,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F108" s="18">
-        <v>23437</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3336,19 +3330,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F109" s="18">
-        <v>18480</v>
+        <v>40000</v>
       </c>
       <c r="G109" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3359,16 +3353,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F110" s="18">
-        <v>18480</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3382,16 +3376,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F111" s="18">
-        <v>18480</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3405,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F112" s="18">
-        <v>18480</v>
+        <v>40000</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3428,16 +3422,16 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F113" s="18">
-        <v>18480</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3451,16 +3445,16 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F114" s="18">
-        <v>18480</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3474,19 +3468,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F115" s="18">
-        <v>18480</v>
+        <v>40000</v>
       </c>
       <c r="G115" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3497,16 +3491,16 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F116" s="18">
-        <v>18480</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3520,16 +3514,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F117" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3543,19 +3537,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F118" s="18">
-        <v>12320</v>
+        <v>40000</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3566,16 +3560,16 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F119" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
         <v>781242</v>
@@ -3589,16 +3583,16 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F120" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
         <v>781242</v>
@@ -3612,19 +3606,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F121" s="18">
-        <v>12320</v>
+        <v>40000</v>
       </c>
       <c r="G121" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3635,16 +3629,16 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F122" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
         <v>781242</v>
@@ -3658,16 +3652,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F123" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
         <v>781242</v>
@@ -3681,19 +3675,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F124" s="18">
-        <v>12320</v>
+        <v>40000</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3704,16 +3698,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F125" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
         <v>781242</v>
@@ -3727,16 +3721,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F126" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
         <v>781242</v>
@@ -3750,19 +3744,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F127" s="18">
-        <v>12320</v>
+        <v>40000</v>
       </c>
       <c r="G127" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3773,16 +3767,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F128" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
         <v>781242</v>
@@ -3796,16 +3790,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F129" s="18">
-        <v>6160</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
         <v>781242</v>
@@ -3819,19 +3813,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F130" s="18">
-        <v>6160</v>
+        <v>40000</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3842,16 +3836,16 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F131" s="18">
-        <v>6160</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
         <v>781242</v>
@@ -3865,16 +3859,16 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F132" s="18">
-        <v>6160</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
         <v>781242</v>
@@ -3888,19 +3882,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F133" s="18">
-        <v>6160</v>
+        <v>40000</v>
       </c>
       <c r="G133" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3911,16 +3905,16 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F134" s="18">
-        <v>6160</v>
+        <v>31249</v>
       </c>
       <c r="G134" s="18">
         <v>781242</v>
@@ -3934,16 +3928,16 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F135" s="18">
-        <v>24999</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
         <v>781242</v>
@@ -3957,19 +3951,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F136" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G136" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -3980,13 +3974,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4003,13 +3997,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4026,19 +4020,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F139" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G139" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4049,13 +4043,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4072,13 +4066,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4095,19 +4089,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F142" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G142" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4118,13 +4112,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4141,13 +4135,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4164,19 +4158,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F145" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G145" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4187,13 +4181,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4210,13 +4204,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4233,19 +4227,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F148" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G148" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4256,13 +4250,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4279,13 +4273,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4302,19 +4296,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F151" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G151" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4325,13 +4319,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4348,13 +4342,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
@@ -4371,19 +4365,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F154" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G154" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4394,13 +4388,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
@@ -4417,13 +4411,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
@@ -4440,19 +4434,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F157" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G157" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4463,13 +4457,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F158" s="18">
         <v>31249</v>
@@ -4486,13 +4480,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4509,19 +4503,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F160" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G160" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4532,13 +4526,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4555,13 +4549,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
@@ -4578,19 +4572,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F163" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G163" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4601,16 +4595,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F164" s="18">
-        <v>23437</v>
+        <v>31249</v>
       </c>
       <c r="G164" s="18">
         <v>781242</v>
@@ -4624,16 +4618,16 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F165" s="18">
-        <v>23437</v>
+        <v>31249</v>
       </c>
       <c r="G165" s="18">
         <v>781242</v>
@@ -4647,19 +4641,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F166" s="18">
-        <v>23437</v>
+        <v>40000</v>
       </c>
       <c r="G166" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4670,16 +4664,16 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F167" s="18">
-        <v>23437</v>
+        <v>31249</v>
       </c>
       <c r="G167" s="18">
         <v>781242</v>
@@ -4693,16 +4687,16 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F168" s="18">
-        <v>18480</v>
+        <v>31249</v>
       </c>
       <c r="G168" s="18">
         <v>781242</v>
@@ -4716,19 +4710,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F169" s="18">
-        <v>18480</v>
+        <v>40000</v>
       </c>
       <c r="G169" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4739,16 +4733,16 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F170" s="18">
-        <v>18480</v>
+        <v>31249</v>
       </c>
       <c r="G170" s="18">
         <v>781242</v>
@@ -4762,16 +4756,16 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F171" s="18">
-        <v>18480</v>
+        <v>31249</v>
       </c>
       <c r="G171" s="18">
         <v>781242</v>
@@ -4785,19 +4779,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F172" s="18">
-        <v>18480</v>
+        <v>40000</v>
       </c>
       <c r="G172" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4808,16 +4802,16 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F173" s="18">
-        <v>18480</v>
+        <v>31249</v>
       </c>
       <c r="G173" s="18">
         <v>781242</v>
@@ -4831,16 +4825,16 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F174" s="18">
-        <v>18480</v>
+        <v>31249</v>
       </c>
       <c r="G174" s="18">
         <v>781242</v>
@@ -4854,19 +4848,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F175" s="18">
-        <v>18480</v>
+        <v>40000</v>
       </c>
       <c r="G175" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4877,16 +4871,16 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F176" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G176" s="18">
         <v>781242</v>
@@ -4900,16 +4894,16 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F177" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G177" s="18">
         <v>781242</v>
@@ -4923,19 +4917,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F178" s="18">
-        <v>12320</v>
+        <v>40000</v>
       </c>
       <c r="G178" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -4946,16 +4940,16 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F179" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G179" s="18">
         <v>781242</v>
@@ -4969,16 +4963,16 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F180" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G180" s="18">
         <v>781242</v>
@@ -4992,19 +4986,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F181" s="18">
-        <v>12320</v>
+        <v>40000</v>
       </c>
       <c r="G181" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5015,16 +5009,16 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F182" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G182" s="18">
         <v>781242</v>
@@ -5038,16 +5032,16 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F183" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G183" s="18">
         <v>781242</v>
@@ -5061,19 +5055,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F184" s="18">
-        <v>12320</v>
+        <v>40000</v>
       </c>
       <c r="G184" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5084,16 +5078,16 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F185" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G185" s="18">
         <v>781242</v>
@@ -5107,16 +5101,16 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F186" s="18">
-        <v>12320</v>
+        <v>31249</v>
       </c>
       <c r="G186" s="18">
         <v>781242</v>
@@ -5130,19 +5124,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F187" s="18">
-        <v>12320</v>
+        <v>40000</v>
       </c>
       <c r="G187" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5153,16 +5147,16 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F188" s="18">
-        <v>6160</v>
+        <v>31249</v>
       </c>
       <c r="G188" s="18">
         <v>781242</v>
@@ -5176,16 +5170,16 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F189" s="18">
-        <v>6160</v>
+        <v>31249</v>
       </c>
       <c r="G189" s="18">
         <v>781242</v>
@@ -5199,19 +5193,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F190" s="18">
-        <v>6160</v>
+        <v>32000</v>
       </c>
       <c r="G190" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5222,16 +5216,16 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F191" s="18">
-        <v>6160</v>
+        <v>24999</v>
       </c>
       <c r="G191" s="18">
         <v>781242</v>
@@ -5241,79 +5235,56 @@
       <c r="J191" s="20"/>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B192" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C192" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D192" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E192" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F192" s="18">
-        <v>6160</v>
-      </c>
-      <c r="G192" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B193" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C193" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D193" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E193" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F193" s="24">
-        <v>6160</v>
-      </c>
-      <c r="G193" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H193" s="25"/>
-      <c r="I193" s="25"/>
-      <c r="J193" s="26"/>
+      <c r="B192" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F192" s="24">
+        <v>24999</v>
+      </c>
+      <c r="G192" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H192" s="25"/>
+      <c r="I192" s="25"/>
+      <c r="J192" s="26"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B197" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C197" s="32"/>
+      <c r="H197" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" s="32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C198" s="32"/>
       <c r="H198" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B199" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C199" s="32"/>
-      <c r="H199" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B199:C199"/>
     <mergeCell ref="B198:C198"/>
-    <mergeCell ref="H199:J199"/>
+    <mergeCell ref="B197:C197"/>
     <mergeCell ref="H198:J198"/>
+    <mergeCell ref="H197:J197"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
